--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-25T10:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">	
+    <t xml:space="preserve">	
 Codes for use in defining access levels for sharing subsets of constrained content (as an example).</t>
   </si>
   <si>
